--- a/data/Raw data/energy.xlsx
+++ b/data/Raw data/energy.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karun/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid-my.sharepoint.com/personal/noaha7_uw_edu/Documents/INFO 201/final-project-info-201/data/Raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_64EC6CCBCA73576896AE4A30C8DBF7D786181420" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1700" windowWidth="20380" windowHeight="14920" activeTab="8"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="2" r:id="rId1"/>
@@ -27,16 +28,25 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'YT03'!$A$1:$G$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'YT06'!$A$1:$F$44</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -728,7 +738,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -1155,9 +1165,9 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 16" xfId="5"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal 16" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1434,15 +1444,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.25" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.25" style="3"/>
     <col min="2" max="2" width="90.75" style="3" customWidth="1"/>
@@ -1450,19 +1460,19 @@
     <col min="4" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1473,7 +1483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
@@ -1484,7 +1494,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -1495,7 +1505,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1506,7 +1516,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
@@ -1517,7 +1527,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -1528,7 +1538,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
@@ -1539,7 +1549,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -1550,7 +1560,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>96</v>
       </c>
@@ -1566,14 +1576,14 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A5" location="'YT01'!A1" display="YT01"/>
-    <hyperlink ref="A6" location="'YT02'!A1" display="YT02"/>
-    <hyperlink ref="A7" location="'YT03'!A1" display="YT03"/>
-    <hyperlink ref="A8" location="'YT04'!A1" display="YT04"/>
-    <hyperlink ref="A9" location="'YT05'!A1" display="YT05"/>
-    <hyperlink ref="A10" location="'YT06'!A1" display="YT06"/>
-    <hyperlink ref="A11" location="'YT07'!A1" display="YT07"/>
-    <hyperlink ref="A12" location="'YT08'!A1" display="YT07"/>
+    <hyperlink ref="A5" location="'YT01'!A1" display="YT01" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A6" location="'YT02'!A1" display="YT02" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A7" location="'YT03'!A1" display="YT03" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A8" location="'YT04'!A1" display="YT04" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A9" location="'YT05'!A1" display="YT05" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A10" location="'YT06'!A1" display="YT06" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A11" location="'YT07'!A1" display="YT07" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A12" location="'YT08'!A1" display="YT07" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="95" orientation="portrait" r:id="rId1"/>
@@ -1581,15 +1591,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.25" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5" style="3" customWidth="1"/>
     <col min="2" max="6" width="17.75" style="3" customWidth="1"/>
@@ -1597,7 +1607,7 @@
     <col min="8" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>19</v>
       </c>
@@ -1607,7 +1617,7 @@
       <c r="E1" s="71"/>
       <c r="F1" s="71"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
         <v>20</v>
       </c>
@@ -1617,7 +1627,7 @@
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
         <v>21</v>
       </c>
@@ -1627,7 +1637,7 @@
       <c r="E3" s="72"/>
       <c r="F3" s="72"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1635,7 +1645,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="73" t="s">
         <v>22</v>
       </c>
@@ -1645,7 +1655,7 @@
       <c r="E5" s="73"/>
       <c r="F5" s="73"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1653,12 +1663,12 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>24</v>
       </c>
@@ -1678,7 +1688,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -1686,7 +1696,7 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>1987</v>
       </c>
@@ -1706,7 +1716,7 @@
         <v>493722</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>1988</v>
       </c>
@@ -1726,7 +1736,7 @@
         <v>516676</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>1989</v>
       </c>
@@ -1746,7 +1756,7 @@
         <v>557520</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>1990</v>
       </c>
@@ -1766,7 +1776,7 @@
         <v>567021</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>1991</v>
       </c>
@@ -1786,7 +1796,7 @@
         <v>575931</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>1992</v>
       </c>
@@ -1806,7 +1816,7 @@
         <v>639267</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>1993</v>
       </c>
@@ -1826,7 +1836,7 @@
         <v>589471</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>1994</v>
       </c>
@@ -1846,7 +1856,7 @@
         <v>606277</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>1995</v>
       </c>
@@ -1866,7 +1876,7 @@
         <v>630374</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>1996</v>
       </c>
@@ -1886,7 +1896,7 @@
         <v>619531</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>1997</v>
       </c>
@@ -1906,7 +1916,7 @@
         <v>635330</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>1998</v>
       </c>
@@ -1926,7 +1936,7 @@
         <v>600071</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>1999</v>
       </c>
@@ -1946,7 +1956,7 @@
         <v>611360</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>2000</v>
       </c>
@@ -1966,7 +1976,7 @@
         <v>623105</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>2001</v>
       </c>
@@ -1986,7 +1996,7 @@
         <v>596220</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>2002</v>
       </c>
@@ -2006,7 +2016,7 @@
         <v>580797</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>2003</v>
       </c>
@@ -2026,7 +2036,7 @@
         <v>582211</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>2004</v>
       </c>
@@ -2046,7 +2056,7 @@
         <v>600989</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>2005</v>
       </c>
@@ -2066,7 +2076,7 @@
         <v>609898</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>2006</v>
       </c>
@@ -2086,7 +2096,7 @@
         <v>625545</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>2007</v>
       </c>
@@ -2106,7 +2116,7 @@
         <v>663534</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>2008</v>
       </c>
@@ -2126,7 +2136,7 @@
         <v>603712</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>2009</v>
       </c>
@@ -2146,7 +2156,7 @@
         <v>595087</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>2010</v>
       </c>
@@ -2166,7 +2176,7 @@
         <v>586751</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>2011</v>
       </c>
@@ -2186,7 +2196,7 @@
         <v>584913</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>2012</v>
       </c>
@@ -2206,7 +2216,7 @@
         <v>605233</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>2013</v>
       </c>
@@ -2226,7 +2236,7 @@
         <v>591935</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>2014</v>
       </c>
@@ -2246,7 +2256,7 @@
         <v>582142</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>2015</v>
       </c>
@@ -2266,7 +2276,7 @@
         <v>622208</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>2016</v>
       </c>
@@ -2286,7 +2296,7 @@
         <v>695660</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>2017</v>
       </c>
@@ -2306,7 +2316,7 @@
         <v>675714</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -2314,7 +2324,7 @@
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A42" s="74" t="s">
         <v>30</v>
       </c>
@@ -2325,7 +2335,7 @@
       <c r="F42" s="74"/>
       <c r="G42" s="20"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="70" t="s">
         <v>31</v>
       </c>
@@ -2336,7 +2346,7 @@
       <c r="F43" s="70"/>
       <c r="G43" s="21"/>
     </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A44" s="70" t="s">
         <v>32</v>
       </c>
@@ -2347,7 +2357,7 @@
       <c r="F44" s="70"/>
       <c r="G44" s="21"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -2355,7 +2365,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>33</v>
       </c>
@@ -2382,15 +2392,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.25" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.25" style="3"/>
     <col min="2" max="7" width="14.75" style="3" customWidth="1"/>
@@ -2399,7 +2409,7 @@
     <col min="10" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>34</v>
       </c>
@@ -2411,7 +2421,7 @@
       <c r="G1" s="71"/>
       <c r="H1" s="71"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
         <v>20</v>
       </c>
@@ -2423,7 +2433,7 @@
       <c r="G2" s="72"/>
       <c r="H2" s="72"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
         <v>21</v>
       </c>
@@ -2435,7 +2445,7 @@
       <c r="G3" s="72"/>
       <c r="H3" s="72"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -2445,7 +2455,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="73" t="s">
         <v>35</v>
       </c>
@@ -2457,7 +2467,7 @@
       <c r="G5" s="73"/>
       <c r="H5" s="73"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -2467,7 +2477,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>23</v>
       </c>
@@ -2485,7 +2495,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>40</v>
       </c>
@@ -2511,7 +2521,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -2521,7 +2531,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="27"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>1987</v>
       </c>
@@ -2547,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>1988</v>
       </c>
@@ -2573,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>1989</v>
       </c>
@@ -2599,7 +2609,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>1990</v>
       </c>
@@ -2625,7 +2635,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>1991</v>
       </c>
@@ -2651,7 +2661,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>1992</v>
       </c>
@@ -2677,7 +2687,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>1993</v>
       </c>
@@ -2703,7 +2713,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>1994</v>
       </c>
@@ -2729,7 +2739,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>1995</v>
       </c>
@@ -2755,7 +2765,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>1996</v>
       </c>
@@ -2781,7 +2791,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>1997</v>
       </c>
@@ -2807,7 +2817,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>1998</v>
       </c>
@@ -2833,7 +2843,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>1999</v>
       </c>
@@ -2859,7 +2869,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>2000</v>
       </c>
@@ -2885,7 +2895,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>2001</v>
       </c>
@@ -2911,7 +2921,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>2002</v>
       </c>
@@ -2937,7 +2947,7 @@
         <v>4466</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>2003</v>
       </c>
@@ -2963,7 +2973,7 @@
         <v>6303</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>2004</v>
       </c>
@@ -2989,7 +2999,7 @@
         <v>7533</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>2005</v>
       </c>
@@ -3015,7 +3025,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>2006</v>
       </c>
@@ -3041,7 +3051,7 @@
         <v>10401</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>2007</v>
       </c>
@@ -3067,7 +3077,7 @@
         <v>24197</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>2008</v>
       </c>
@@ -3093,7 +3103,7 @@
         <v>36149</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>2009</v>
       </c>
@@ -3119,7 +3129,7 @@
         <v>34990</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>2010</v>
       </c>
@@ -3145,7 +3155,7 @@
         <v>46444</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>2011</v>
       </c>
@@ -3171,7 +3181,7 @@
         <v>61046</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>2012</v>
       </c>
@@ -3197,7 +3207,7 @@
         <v>63073</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>2013</v>
       </c>
@@ -3223,7 +3233,7 @@
         <v>67166</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>2014</v>
       </c>
@@ -3249,7 +3259,7 @@
         <v>69588</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>2015</v>
       </c>
@@ -3275,7 +3285,7 @@
         <v>66585</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>2016</v>
       </c>
@@ -3301,7 +3311,7 @@
         <v>75199</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>2017</v>
       </c>
@@ -3327,7 +3337,7 @@
         <v>65002</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -3337,7 +3347,7 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A42" s="76" t="s">
         <v>30</v>
       </c>
@@ -3349,7 +3359,7 @@
       <c r="G42" s="75"/>
       <c r="H42" s="77"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="75" t="s">
         <v>31</v>
       </c>
@@ -3361,7 +3371,7 @@
       <c r="G43" s="75"/>
       <c r="H43" s="77"/>
     </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A44" s="75" t="s">
         <v>48</v>
       </c>
@@ -3373,7 +3383,7 @@
       <c r="G44" s="75"/>
       <c r="H44" s="75"/>
     </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A45" s="75" t="s">
         <v>49</v>
       </c>
@@ -3385,7 +3395,7 @@
       <c r="G45" s="75"/>
       <c r="H45" s="75"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="75" t="s">
         <v>50</v>
       </c>
@@ -3397,7 +3407,7 @@
       <c r="G46" s="75"/>
       <c r="H46" s="75"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -3407,7 +3417,7 @@
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="75" t="s">
         <v>51</v>
       </c>
@@ -3439,15 +3449,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.25" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.25" style="3"/>
     <col min="2" max="5" width="17.5" style="3" customWidth="1"/>
@@ -3456,7 +3466,7 @@
     <col min="8" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>52</v>
       </c>
@@ -3466,7 +3476,7 @@
       <c r="E1" s="71"/>
       <c r="F1" s="71"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
         <v>20</v>
       </c>
@@ -3476,7 +3486,7 @@
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
         <v>21</v>
       </c>
@@ -3486,7 +3496,7 @@
       <c r="E3" s="72"/>
       <c r="F3" s="72"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -3494,7 +3504,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="73" t="s">
         <v>53</v>
       </c>
@@ -3504,7 +3514,7 @@
       <c r="E5" s="73"/>
       <c r="F5" s="73"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>23</v>
       </c>
@@ -3514,7 +3524,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>40</v>
       </c>
@@ -3534,7 +3544,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -3542,7 +3552,7 @@
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>1987</v>
       </c>
@@ -3562,7 +3572,7 @@
         <v>5106.8657712521899</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>1988</v>
       </c>
@@ -3582,7 +3592,7 @@
         <v>5009.8330001934364</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>1989</v>
       </c>
@@ -3602,7 +3612,7 @@
         <v>5571.6236345580946</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>1990</v>
       </c>
@@ -3622,7 +3632,7 @@
         <v>6390.8379587379013</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>1991</v>
       </c>
@@ -3642,7 +3652,7 @@
         <v>6328.6849993483638</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>1992</v>
       </c>
@@ -3662,7 +3672,7 @@
         <v>6139.0021519990942</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>1993</v>
       </c>
@@ -3682,7 +3692,7 @@
         <v>5792.8507225333615</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>1994</v>
       </c>
@@ -3702,7 +3712,7 @@
         <v>5988.6799095476017</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>1995</v>
       </c>
@@ -3722,7 +3732,7 @@
         <v>6129.8794317774855</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>1996</v>
       </c>
@@ -3742,7 +3752,7 @@
         <v>6766.970182500293</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>1997</v>
       </c>
@@ -3762,7 +3772,7 @@
         <v>6683.8694805860059</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>1998</v>
       </c>
@@ -3782,7 +3792,7 @@
         <v>5339.5832013682148</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>1999</v>
       </c>
@@ -3802,7 +3812,7 @@
         <v>6344.8448135889594</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>2000</v>
       </c>
@@ -3822,7 +3832,7 @@
         <v>8184.3936988643291</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>2001</v>
       </c>
@@ -3842,7 +3852,7 @@
         <v>7218.792907886098</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>2002</v>
       </c>
@@ -3862,7 +3872,7 @@
         <v>6590.5456255879581</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>2003</v>
       </c>
@@ -3882,7 +3892,7 @@
         <v>7737.8221018043459</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>2004</v>
       </c>
@@ -3902,7 +3912,7 @@
         <v>9312.3723602414793</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>2005</v>
       </c>
@@ -3922,7 +3932,7 @@
         <v>11194.107734956786</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>2006</v>
       </c>
@@ -3942,7 +3952,7 @@
         <v>12936.759060034596</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>2007</v>
       </c>
@@ -3962,7 +3972,7 @@
         <v>14134.785288678855</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>2008</v>
       </c>
@@ -3982,7 +3992,7 @@
         <v>16159.467032191738</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>2009</v>
       </c>
@@ -4002,7 +4012,7 @@
         <v>11081.3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>2010</v>
       </c>
@@ -4022,7 +4032,7 @@
         <v>12841.068500187699</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>2011</v>
       </c>
@@ -4042,7 +4052,7 @@
         <v>15934.472245075742</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>2012</v>
       </c>
@@ -4062,7 +4072,7 @@
         <v>16505.79737692454</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>2013</v>
       </c>
@@ -4082,7 +4092,7 @@
         <v>15345.583765839061</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>2014</v>
       </c>
@@ -4102,7 +4112,7 @@
         <v>14511.840579976813</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>2015</v>
       </c>
@@ -4122,7 +4132,7 @@
         <v>10888.737387510228</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>2016</v>
       </c>
@@ -4142,7 +4152,7 @@
         <v>10140.803571428572</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>2017</v>
       </c>
@@ -4162,7 +4172,7 @@
         <v>11480.087719298246</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="31"/>
       <c r="C40" s="32"/>
@@ -4170,7 +4180,7 @@
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
     </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A41" s="79" t="s">
         <v>55</v>
       </c>
@@ -4181,7 +4191,7 @@
       <c r="F41" s="79"/>
       <c r="G41" s="79"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -4189,7 +4199,7 @@
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="78" t="s">
         <v>56</v>
       </c>
@@ -4215,15 +4225,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.25" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.25" style="3"/>
     <col min="2" max="6" width="16.75" style="3" customWidth="1"/>
@@ -4231,7 +4241,7 @@
     <col min="8" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>57</v>
       </c>
@@ -4242,7 +4252,7 @@
       <c r="F1" s="71"/>
       <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
         <v>20</v>
       </c>
@@ -4253,7 +4263,7 @@
       <c r="F2" s="72"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
         <v>21</v>
       </c>
@@ -4264,7 +4274,7 @@
       <c r="F3" s="72"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="72"/>
       <c r="B4" s="72"/>
       <c r="C4" s="72"/>
@@ -4273,7 +4283,7 @@
       <c r="F4" s="72"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="73" t="s">
         <v>58</v>
       </c>
@@ -4284,7 +4294,7 @@
       <c r="F5" s="73"/>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="72"/>
       <c r="C6" s="72"/>
@@ -4293,7 +4303,7 @@
       <c r="F6" s="72"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>23</v>
       </c>
@@ -4306,7 +4316,7 @@
       <c r="F7" s="24"/>
       <c r="G7" s="38"/>
     </row>
-    <row r="8" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>40</v>
       </c>
@@ -4327,7 +4337,7 @@
       </c>
       <c r="G8" s="39"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="40"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -4336,7 +4346,7 @@
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>1987</v>
       </c>
@@ -4357,7 +4367,7 @@
       </c>
       <c r="G10" s="42"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>1988</v>
       </c>
@@ -4378,7 +4388,7 @@
       </c>
       <c r="G11" s="42"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>1989</v>
       </c>
@@ -4399,7 +4409,7 @@
       </c>
       <c r="G12" s="42"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>1990</v>
       </c>
@@ -4420,7 +4430,7 @@
       </c>
       <c r="G13" s="42"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>1991</v>
       </c>
@@ -4441,7 +4451,7 @@
       </c>
       <c r="G14" s="42"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>1992</v>
       </c>
@@ -4462,7 +4472,7 @@
       </c>
       <c r="G15" s="42"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>1993</v>
       </c>
@@ -4483,7 +4493,7 @@
       </c>
       <c r="G16" s="42"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>1994</v>
       </c>
@@ -4504,7 +4514,7 @@
       </c>
       <c r="G17" s="42"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>1995</v>
       </c>
@@ -4525,7 +4535,7 @@
       </c>
       <c r="G18" s="42"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>1996</v>
       </c>
@@ -4546,7 +4556,7 @@
       </c>
       <c r="G19" s="42"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>1997</v>
       </c>
@@ -4567,7 +4577,7 @@
       </c>
       <c r="G20" s="42"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>1998</v>
       </c>
@@ -4588,7 +4598,7 @@
       </c>
       <c r="G21" s="42"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>1999</v>
       </c>
@@ -4609,7 +4619,7 @@
       </c>
       <c r="G22" s="42"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>2000</v>
       </c>
@@ -4630,7 +4640,7 @@
       </c>
       <c r="G23" s="42"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>2001</v>
       </c>
@@ -4651,7 +4661,7 @@
       </c>
       <c r="G24" s="42"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>2002</v>
       </c>
@@ -4672,7 +4682,7 @@
       </c>
       <c r="G25" s="42"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>2003</v>
       </c>
@@ -4693,7 +4703,7 @@
       </c>
       <c r="G26" s="42"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>2004</v>
       </c>
@@ -4714,7 +4724,7 @@
       </c>
       <c r="G27" s="42"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>2005</v>
       </c>
@@ -4735,7 +4745,7 @@
       </c>
       <c r="G28" s="42"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>2006</v>
       </c>
@@ -4756,7 +4766,7 @@
       </c>
       <c r="G29" s="42"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>2007</v>
       </c>
@@ -4777,7 +4787,7 @@
       </c>
       <c r="G30" s="42"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>2008</v>
       </c>
@@ -4798,7 +4808,7 @@
       </c>
       <c r="G31" s="42"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>2009</v>
       </c>
@@ -4819,7 +4829,7 @@
       </c>
       <c r="G32" s="42"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>2010</v>
       </c>
@@ -4840,7 +4850,7 @@
       </c>
       <c r="G33" s="42"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>2011</v>
       </c>
@@ -4861,7 +4871,7 @@
       </c>
       <c r="G34" s="42"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>2012</v>
       </c>
@@ -4882,7 +4892,7 @@
       </c>
       <c r="G35" s="42"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>2013</v>
       </c>
@@ -4903,7 +4913,7 @@
       </c>
       <c r="G36" s="42"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>2014</v>
       </c>
@@ -4924,7 +4934,7 @@
       </c>
       <c r="G37" s="42"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>2015</v>
       </c>
@@ -4945,7 +4955,7 @@
       </c>
       <c r="G38" s="42"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>2016</v>
       </c>
@@ -4966,7 +4976,7 @@
       </c>
       <c r="G39" s="42"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>2017</v>
       </c>
@@ -4987,7 +4997,7 @@
       </c>
       <c r="G40" s="42"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -4996,7 +5006,7 @@
       <c r="F41" s="36"/>
       <c r="G41" s="36"/>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A42" s="75" t="s">
         <v>61</v>
       </c>
@@ -5007,7 +5017,7 @@
       <c r="F42" s="75"/>
       <c r="G42" s="75"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="75" t="s">
         <v>62</v>
       </c>
@@ -5018,7 +5028,7 @@
       <c r="F43" s="75"/>
       <c r="G43" s="77"/>
     </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A44" s="75" t="s">
         <v>63</v>
       </c>
@@ -5029,7 +5039,7 @@
       <c r="F44" s="75"/>
       <c r="G44" s="20"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -5038,7 +5048,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="75" t="s">
         <v>64</v>
       </c>
@@ -5069,15 +5079,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.25" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="21" customWidth="1"/>
     <col min="2" max="5" width="20" style="3" customWidth="1"/>
@@ -5085,7 +5095,7 @@
     <col min="7" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>65</v>
       </c>
@@ -5094,7 +5104,7 @@
       <c r="D1" s="71"/>
       <c r="E1" s="71"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
         <v>20</v>
       </c>
@@ -5103,7 +5113,7 @@
       <c r="D2" s="72"/>
       <c r="E2" s="72"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
         <v>21</v>
       </c>
@@ -5112,14 +5122,14 @@
       <c r="D3" s="72"/>
       <c r="E3" s="72"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="73" t="s">
         <v>66</v>
       </c>
@@ -5128,14 +5138,14 @@
       <c r="D5" s="73"/>
       <c r="E5" s="73"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
     </row>
-    <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>23</v>
       </c>
@@ -5143,7 +5153,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>40</v>
       </c>
@@ -5160,14 +5170,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="46"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="47">
         <v>1987</v>
       </c>
@@ -5184,7 +5194,7 @@
         <v>4.1711854509051474</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="47">
         <v>1988</v>
       </c>
@@ -5201,7 +5211,7 @@
         <v>4.9165000967180346</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="47">
         <v>1989</v>
       </c>
@@ -5218,7 +5228,7 @@
         <v>7.8357745779543198</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="47">
         <v>1990</v>
       </c>
@@ -5235,7 +5245,7 @@
         <v>4.5331458236711004</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="47">
         <v>1991</v>
       </c>
@@ -5252,7 +5262,7 @@
         <v>5.5461430412557746</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="47">
         <v>1992</v>
       </c>
@@ -5269,7 +5279,7 @@
         <v>4.4738928530977464</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="47">
         <v>1993</v>
       </c>
@@ -5286,7 +5296,7 @@
         <v>5.1994745211920073</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="47">
         <v>1994</v>
       </c>
@@ -5303,7 +5313,7 @@
         <v>6.3777064630133644</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="47">
         <v>1995</v>
       </c>
@@ -5320,7 +5330,7 @@
         <v>5.8095579165174485</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="47">
         <v>1996</v>
       </c>
@@ -5337,7 +5347,7 @@
         <v>6.1875545481782543</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="47">
         <v>1997</v>
       </c>
@@ -5354,7 +5364,7 @@
         <v>7.235426698084213</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="47">
         <v>1998</v>
       </c>
@@ -5371,7 +5381,7 @@
         <v>4.1299803635902954</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="47">
         <v>1999</v>
       </c>
@@ -5388,7 +5398,7 @@
         <v>3.2723412227565105</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="47">
         <v>2000</v>
       </c>
@@ -5405,7 +5415,7 @@
         <v>6.2156551471486141</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="47">
         <v>2001</v>
       </c>
@@ -5422,7 +5432,7 @@
         <v>8.8591725867112423</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="47">
         <v>2002</v>
       </c>
@@ -5439,7 +5449,7 @@
         <v>3.8805268109125115</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="47">
         <v>2003</v>
       </c>
@@ -5456,7 +5466,7 @@
         <v>3.6663400011529372</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="47">
         <v>2004</v>
       </c>
@@ -5473,7 +5483,7 @@
         <v>5.0719271078794401</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="47">
         <v>2005</v>
       </c>
@@ -5490,7 +5500,7 @@
         <v>7.0554981790509324</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>2006</v>
       </c>
@@ -5507,7 +5517,7 @@
         <v>5.9697084757203731</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>2007</v>
       </c>
@@ -5524,7 +5534,7 @@
         <v>6.1742346414629132</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>2008</v>
       </c>
@@ -5541,7 +5551,7 @@
         <v>8.3754963817049326</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="47">
         <v>2009</v>
       </c>
@@ -5558,7 +5568,7 @@
         <v>5.14</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="47">
         <v>2010</v>
       </c>
@@ -5575,7 +5585,7 @@
         <v>5.2950822911109796</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="47">
         <v>2011</v>
       </c>
@@ -5592,7 +5602,7 @@
         <v>5.3428834147993998</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="47">
         <v>2012</v>
       </c>
@@ -5609,7 +5619,7 @@
         <v>4.1341950199581827</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="47">
         <v>2013</v>
       </c>
@@ -5626,7 +5636,7 @@
         <v>4.2081638378454205</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="47">
         <v>2014</v>
       </c>
@@ -5643,7 +5653,7 @@
         <v>4.5264688023257946</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="47">
         <v>2015</v>
       </c>
@@ -5660,7 +5670,7 @@
         <v>3.1633487864739567</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="47">
         <v>2016</v>
       </c>
@@ -5677,7 +5687,7 @@
         <v>3.0446428571428572</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="47">
         <v>2017</v>
       </c>
@@ -5694,14 +5704,14 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="47"/>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
       <c r="D41" s="48"/>
       <c r="E41" s="48"/>
     </row>
-    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A42" s="75" t="s">
         <v>69</v>
       </c>
@@ -5711,7 +5721,7 @@
       <c r="E42" s="75"/>
       <c r="F42" s="75"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="75" t="s">
         <v>70</v>
       </c>
@@ -5721,7 +5731,7 @@
       <c r="E43" s="75"/>
       <c r="F43" s="77"/>
     </row>
-    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A44" s="75" t="s">
         <v>71</v>
       </c>
@@ -5731,14 +5741,14 @@
       <c r="E44" s="75"/>
       <c r="F44" s="20"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>72</v>
       </c>
@@ -5764,15 +5774,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.25" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
     <col min="2" max="5" width="19.5" style="3" customWidth="1"/>
@@ -5780,7 +5790,7 @@
     <col min="7" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="81" t="s">
         <v>73</v>
       </c>
@@ -5791,7 +5801,7 @@
       <c r="F1" s="81"/>
       <c r="G1" s="49"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
         <v>20</v>
       </c>
@@ -5802,7 +5812,7 @@
       <c r="F2" s="82"/>
       <c r="G2" s="50"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
         <v>21</v>
       </c>
@@ -5813,7 +5823,7 @@
       <c r="F3" s="82"/>
       <c r="G3" s="50"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
@@ -5822,7 +5832,7 @@
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" s="83" t="s">
         <v>74</v>
       </c>
@@ -5830,13 +5840,13 @@
       <c r="D5" s="83"/>
       <c r="E5" s="83"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
       <c r="E6" s="52"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="53" t="s">
         <v>23</v>
       </c>
@@ -5844,7 +5854,7 @@
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
     </row>
-    <row r="8" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="55" t="s">
         <v>40</v>
       </c>
@@ -5861,14 +5871,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="58"/>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
       <c r="D9" s="60"/>
       <c r="E9" s="60"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="61">
         <v>1987</v>
       </c>
@@ -5885,7 +5895,7 @@
         <v>4.3449053140902638</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="61">
         <v>1988</v>
       </c>
@@ -5902,7 +5912,7 @@
         <v>4.6708959313946741</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="61">
         <v>1989</v>
       </c>
@@ -5919,7 +5929,7 @@
         <v>4.8667871772591855</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="61">
         <v>1990</v>
       </c>
@@ -5936,7 +5946,7 @@
         <v>4.1257671189838581</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="61">
         <v>1991</v>
       </c>
@@ -5953,7 +5963,7 @@
         <v>4.0922194708718882</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="61">
         <v>1992</v>
       </c>
@@ -5970,7 +5980,7 @@
         <v>4.1845877222788532</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="61">
         <v>1993</v>
       </c>
@@ -5987,7 +5997,7 @@
         <v>4.3231805296273249</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="61">
         <v>1994</v>
       </c>
@@ -6004,7 +6014,7 @@
         <v>4.630710484624446</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="61">
         <v>1995</v>
       </c>
@@ -6021,7 +6031,7 @@
         <v>4.2100592893239428</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="61">
         <v>1996</v>
       </c>
@@ -6038,7 +6048,7 @@
         <v>4.4414748524756726</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="61">
         <v>1997</v>
       </c>
@@ -6055,7 +6065,7 @@
         <v>4.6460646962401393</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="61">
         <v>1998</v>
       </c>
@@ -6072,7 +6082,7 @@
         <v>3.9692582504592377</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="61">
         <v>1999</v>
       </c>
@@ -6089,7 +6099,7 @@
         <v>3.9686542184475115</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="61">
         <v>2000</v>
       </c>
@@ -6106,7 +6116,7 @@
         <v>3.9468933935767487</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="61">
         <v>2001</v>
       </c>
@@ -6123,7 +6133,7 @@
         <v>4.4009790460271025</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="61">
         <v>2002</v>
       </c>
@@ -6140,7 +6150,7 @@
         <v>4.8401669802445904</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="61">
         <v>2003</v>
       </c>
@@ -6157,7 +6167,7 @@
         <v>7.441036490459445</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="61">
         <v>2004</v>
       </c>
@@ -6174,7 +6184,7 @@
         <v>7.234404946251038</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="61">
         <v>2005</v>
       </c>
@@ -6191,7 +6201,7 @@
         <v>6.9977909441756818</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="61">
         <v>2006</v>
       </c>
@@ -6208,7 +6218,7 @@
         <v>6.2563747204995135</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="61">
         <v>2007</v>
       </c>
@@ -6225,7 +6235,7 @@
         <v>5.8975405794123681</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="61">
         <v>2008</v>
       </c>
@@ -6242,7 +6252,7 @@
         <v>5.8684694309500278</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="61">
         <v>2009</v>
       </c>
@@ -6259,7 +6269,7 @@
         <v>5.9079029999999992</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="61">
         <v>2010</v>
       </c>
@@ -6276,7 +6286,7 @@
         <v>7.3367395728370184</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="61">
         <v>2011</v>
       </c>
@@ -6293,7 +6303,7 @@
         <v>8.2686337898659446</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="61">
         <v>2012</v>
       </c>
@@ -6310,7 +6320,7 @@
         <v>7.6648156244060059</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="61">
         <v>2013</v>
       </c>
@@ -6327,7 +6337,7 @@
         <v>7.5227390470846771</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="61">
         <v>2014</v>
       </c>
@@ -6344,7 +6354,7 @@
         <v>7.8029192043719071</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="61">
         <v>2015</v>
       </c>
@@ -6361,7 +6371,7 @@
         <v>7.4427661121716184</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="61">
         <v>2016</v>
       </c>
@@ -6378,7 +6388,7 @@
         <v>7.935225</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="61">
         <v>2017</v>
       </c>
@@ -6395,13 +6405,13 @@
         <v>8.0564763157894745</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="61"/>
       <c r="C41" s="63"/>
       <c r="D41" s="63"/>
       <c r="E41" s="63"/>
     </row>
-    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A42" s="84" t="s">
         <v>55</v>
       </c>
@@ -6410,14 +6420,14 @@
       <c r="D42" s="84"/>
       <c r="E42" s="84"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="85"/>
       <c r="C43" s="85"/>
       <c r="D43" s="85"/>
       <c r="E43" s="85"/>
       <c r="F43" s="85"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>75</v>
       </c>
@@ -6443,15 +6453,15 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.25" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.25" style="64" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="64" customWidth="1"/>
@@ -6461,7 +6471,7 @@
     <col min="7" max="16384" width="9.25" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>76</v>
       </c>
@@ -6471,7 +6481,7 @@
       <c r="E1" s="71"/>
       <c r="F1" s="71"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
         <v>20</v>
       </c>
@@ -6481,7 +6491,7 @@
       <c r="E2" s="72"/>
       <c r="F2" s="72"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
         <v>21</v>
       </c>
@@ -6491,7 +6501,7 @@
       <c r="E3" s="72"/>
       <c r="F3" s="72"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6499,17 +6509,17 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" s="73" t="s">
         <v>77</v>
       </c>
       <c r="C5" s="73"/>
       <c r="D5" s="73"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="D6" s="37"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="34" t="s">
         <v>23</v>
       </c>
@@ -6520,7 +6530,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
         <v>40</v>
       </c>
@@ -6531,12 +6541,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="65">
         <v>1987</v>
       </c>
@@ -6547,7 +6557,7 @@
         <v>249.29683329552859</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="65">
         <v>1988</v>
       </c>
@@ -6558,7 +6568,7 @@
         <v>258.62345717251287</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="65">
         <v>1989</v>
       </c>
@@ -6569,7 +6579,7 @@
         <v>258.81869496149062</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="65">
         <v>1990</v>
       </c>
@@ -6580,7 +6590,7 @@
         <v>253.34349114893334</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="65">
         <v>1991</v>
       </c>
@@ -6591,7 +6601,7 @@
         <v>249.59053446784623</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="65">
         <v>1992</v>
       </c>
@@ -6602,7 +6612,7 @@
         <v>252.60916768756408</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="65">
         <v>1993</v>
       </c>
@@ -6613,7 +6623,7 @@
         <v>252.91886642717182</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="65">
         <v>1994</v>
       </c>
@@ -6624,7 +6634,7 @@
         <v>255.87466389053787</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="65">
         <v>1995</v>
       </c>
@@ -6635,7 +6645,7 @@
         <v>257.91440286307545</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="65">
         <v>1996</v>
       </c>
@@ -6646,7 +6656,7 @@
         <v>264.25872398091411</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="65">
         <v>1997</v>
       </c>
@@ -6657,7 +6667,7 @@
         <v>263.2344966508723</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="65">
         <v>1998</v>
       </c>
@@ -6668,7 +6678,7 @@
         <v>258.39573364025932</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="65">
         <v>1999</v>
       </c>
@@ -6679,7 +6689,7 @@
         <v>259.77083430383112</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="65">
         <v>2000</v>
       </c>
@@ -6690,7 +6700,7 @@
         <v>256.16928814878861</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="65">
         <v>2001</v>
       </c>
@@ -6701,7 +6711,7 @@
         <v>246.83102287897145</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="65">
         <v>2002</v>
       </c>
@@ -6712,7 +6722,7 @@
         <v>247.77006265224213</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="65">
         <v>2003</v>
       </c>
@@ -6723,7 +6733,7 @@
         <v>246.93689717104402</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="65">
         <v>2004</v>
       </c>
@@ -6734,7 +6744,7 @@
         <v>250.37987883626002</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="65">
         <v>2005</v>
       </c>
@@ -6745,7 +6755,7 @@
         <v>246.55246233441352</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="65">
         <v>2006</v>
       </c>
@@ -6756,7 +6766,7 @@
         <v>242.51564290248319</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="65">
         <v>2007</v>
       </c>
@@ -6767,7 +6777,7 @@
         <v>243.13252335942732</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="65">
         <v>2008</v>
       </c>
@@ -6778,7 +6788,7 @@
         <v>235.10464345484968</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="65">
         <v>2009</v>
       </c>
@@ -6789,7 +6799,7 @@
         <v>221.14308420661442</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="65">
         <v>2010</v>
       </c>
@@ -6800,7 +6810,7 @@
         <v>228.5286124705398</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="65">
         <v>2011</v>
       </c>
@@ -6811,7 +6821,7 @@
         <v>225.7356205481411</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="65">
         <v>2012</v>
       </c>
@@ -6822,7 +6832,7 @@
         <v>219.23958546103896</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="65">
         <v>2013</v>
       </c>
@@ -6833,7 +6843,7 @@
         <v>225.9667078333211</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="65">
         <v>2014</v>
       </c>
@@ -6844,7 +6854,7 @@
         <v>227.47319453992864</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="65">
         <v>2015</v>
       </c>
@@ -6855,7 +6865,7 @@
         <v>225.26910208819965</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="65">
         <v>2016</v>
       </c>
@@ -6866,7 +6876,7 @@
         <v>223.51817129743165</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="65">
         <v>2017</v>
       </c>
@@ -6877,7 +6887,7 @@
         <v>224.19725547387671</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>82</v>
       </c>
@@ -6885,7 +6895,7 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="75" t="s">
         <v>83</v>
       </c>
@@ -6893,7 +6903,7 @@
       <c r="D43" s="75"/>
       <c r="E43" s="75"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="75" t="s">
         <v>84</v>
       </c>
@@ -6901,7 +6911,7 @@
       <c r="D44" s="75"/>
       <c r="E44" s="75"/>
     </row>
-    <row r="45" spans="2:5" ht="15" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:5" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B45" s="75" t="s">
         <v>32</v>
       </c>
@@ -6909,12 +6919,12 @@
       <c r="D45" s="75"/>
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
         <v>85</v>
       </c>
@@ -6938,15 +6948,15 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet10" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.25" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.25" style="3"/>
     <col min="2" max="9" width="14.75" style="3" customWidth="1"/>
@@ -6955,7 +6965,7 @@
     <col min="13" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>86</v>
       </c>
@@ -6970,7 +6980,7 @@
       <c r="J1" s="71"/>
       <c r="K1" s="71"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
         <v>20</v>
       </c>
@@ -6985,7 +6995,7 @@
       <c r="J2" s="72"/>
       <c r="K2" s="72"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
         <v>21</v>
       </c>
@@ -7000,7 +7010,7 @@
       <c r="J3" s="72"/>
       <c r="K3" s="72"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7013,7 +7023,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="73" t="s">
         <v>87</v>
       </c>
@@ -7028,7 +7038,7 @@
       <c r="J5" s="73"/>
       <c r="K5" s="73"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7041,7 +7051,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>23</v>
       </c>
@@ -7061,7 +7071,7 @@
       </c>
       <c r="K7" s="24"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>40</v>
       </c>
@@ -7096,7 +7106,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -7109,7 +7119,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="27"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>2001</v>
       </c>
@@ -7145,7 +7155,7 @@
         <v>76857334</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>2002</v>
       </c>
@@ -7177,11 +7187,11 @@
         <v>220705.36</v>
       </c>
       <c r="K11" s="68">
-        <f t="shared" ref="K11:K26" si="0">SUM(B11:J11)</f>
+        <f t="shared" ref="K11:K25" si="0">SUM(B11:J11)</f>
         <v>77702780.576999992</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>2003</v>
       </c>
@@ -7217,7 +7227,7 @@
         <v>80878516.45100002</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>2004</v>
       </c>
@@ -7253,7 +7263,7 @@
         <v>81734749.794</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>2005</v>
       </c>
@@ -7289,7 +7299,7 @@
         <v>83887402</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>2006</v>
       </c>
@@ -7325,7 +7335,7 @@
         <v>87414450.19600001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>2007</v>
       </c>
@@ -7361,7 +7371,7 @@
         <v>88280922.938999996</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>2008</v>
       </c>
@@ -7397,7 +7407,7 @@
         <v>89187848.689999998</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>2009</v>
       </c>
@@ -7433,7 +7443,7 @@
         <v>88846890.776000008</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>2010</v>
       </c>
@@ -7469,7 +7479,7 @@
         <v>88515798.231000006</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>2011</v>
       </c>
@@ -7505,7 +7515,7 @@
         <v>91078950.069999978</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>2012</v>
       </c>
@@ -7541,7 +7551,7 @@
         <v>90607374.99500002</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>2013</v>
       </c>
@@ -7577,7 +7587,7 @@
         <v>91277140.500000015</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>2014</v>
       </c>
@@ -7613,7 +7623,7 @@
         <v>91722843.775642112</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>2015</v>
       </c>
@@ -7649,7 +7659,7 @@
         <v>88320101</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>2016</v>
       </c>
@@ -7685,7 +7695,7 @@
         <v>87404507</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>2017</v>
       </c>
@@ -7721,7 +7731,7 @@
         <v>94005598.384000003</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -7734,7 +7744,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A28" s="76" t="s">
         <v>93</v>
       </c>
@@ -7749,7 +7759,7 @@
       <c r="J28" s="75"/>
       <c r="K28" s="77"/>
     </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A29" s="75" t="s">
         <v>94</v>
       </c>
@@ -7764,7 +7774,7 @@
       <c r="J29" s="75"/>
       <c r="K29" s="75"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -7777,7 +7787,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="75" t="s">
         <v>95</v>
       </c>
